--- a/Week 3/Ex. 3 - Template.xlsx
+++ b/Week 3/Ex. 3 - Template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marta\Documents\FEUP - Aulas\GEE\Aula 2 MCF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diogo Nunes\FEUP\GEE\Week 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F6A554-18F8-46E4-9675-D543B7BD0DD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="classifica" sheetId="1" r:id="rId1"/>
@@ -19,8 +20,18 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Movements!$1:$1048576</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -29,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="134">
   <si>
     <t>Edifícios</t>
   </si>
@@ -352,9 +363,6 @@
     <t>Earnings before taxes</t>
   </si>
   <si>
-    <t>Taxes</t>
-  </si>
-  <si>
     <t>Exercise 3: Movements</t>
   </si>
   <si>
@@ -395,12 +403,51 @@
   </si>
   <si>
     <t>Total Equity + Liabilities</t>
+  </si>
+  <si>
+    <t>1)</t>
+  </si>
+  <si>
+    <t>2)</t>
+  </si>
+  <si>
+    <t>3)</t>
+  </si>
+  <si>
+    <t>4)</t>
+  </si>
+  <si>
+    <t>5)</t>
+  </si>
+  <si>
+    <t>6)</t>
+  </si>
+  <si>
+    <t>7)</t>
+  </si>
+  <si>
+    <t>8)</t>
+  </si>
+  <si>
+    <t>9)</t>
+  </si>
+  <si>
+    <t>10)</t>
+  </si>
+  <si>
+    <t>Net Income</t>
+  </si>
+  <si>
+    <t>alínea c)</t>
+  </si>
+  <si>
+    <t>Taxes  (isento)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -448,12 +495,24 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="25">
@@ -750,7 +809,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -896,6 +955,22 @@
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -920,10 +995,8 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1227,27 +1300,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5:F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.453125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="43.42578125" style="1" customWidth="1"/>
     <col min="2" max="3" width="11" style="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2" style="1" customWidth="1"/>
     <col min="6" max="7" width="11" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.81640625" style="1"/>
+    <col min="8" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>61</v>
       </c>
@@ -1268,7 +1341,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="66" t="s">
         <v>44</v>
       </c>
@@ -1283,7 +1356,7 @@
       </c>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="66" t="s">
         <v>45</v>
       </c>
@@ -1298,7 +1371,7 @@
       </c>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="67" t="s">
         <v>46</v>
       </c>
@@ -1313,7 +1386,7 @@
       </c>
       <c r="G7" s="12"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="67" t="s">
         <v>47</v>
       </c>
@@ -1328,7 +1401,7 @@
       </c>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="67" t="s">
         <v>48</v>
       </c>
@@ -1343,7 +1416,7 @@
       </c>
       <c r="G9" s="12"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="67" t="s">
         <v>49</v>
       </c>
@@ -1358,7 +1431,7 @@
       </c>
       <c r="G10" s="12"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="68" t="s">
         <v>50</v>
       </c>
@@ -1373,7 +1446,7 @@
       </c>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="69" t="s">
         <v>51</v>
       </c>
@@ -1388,7 +1461,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="69" t="s">
         <v>52</v>
       </c>
@@ -1403,7 +1476,7 @@
       </c>
       <c r="G13" s="12"/>
     </row>
-    <row r="14" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="69" t="s">
         <v>53</v>
       </c>
@@ -1418,7 +1491,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="69" t="s">
         <v>54</v>
       </c>
@@ -1433,7 +1506,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="69" t="s">
         <v>55</v>
       </c>
@@ -1448,7 +1521,7 @@
       </c>
       <c r="G16" s="12"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="69" t="s">
         <v>56</v>
       </c>
@@ -1463,7 +1536,7 @@
       </c>
       <c r="G17" s="12"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="69" t="s">
         <v>57</v>
       </c>
@@ -1478,7 +1551,7 @@
       </c>
       <c r="G18" s="12"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="69" t="s">
         <v>58</v>
       </c>
@@ -1489,7 +1562,7 @@
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="69" t="s">
         <v>59</v>
       </c>
@@ -1500,7 +1573,7 @@
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
     </row>
-    <row r="21" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="70" t="s">
         <v>60</v>
       </c>
@@ -1511,7 +1584,7 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="1:7" ht="16" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="F22" s="10">
         <f>SUM(F5:F21)</f>
         <v>116150</v>
@@ -1521,7 +1594,7 @@
         <v>53500</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>63</v>
       </c>
@@ -1544,35 +1617,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P99"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:T99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I22" workbookViewId="0">
-      <selection activeCell="R34" sqref="R34"/>
+    <sheetView tabSelected="1" topLeftCell="I19" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" style="31" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7265625" style="1" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="9.26953125" style="23" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="1.26953125" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="2.26953125" style="31" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="30.7265625" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="9.26953125" style="23" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="1.26953125" style="1" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="1.81640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="54.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="23" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="1.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="2.28515625" style="31" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="23" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="1.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="1.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="54.42578125" style="1" customWidth="1"/>
     <col min="11" max="11" width="16" style="1" customWidth="1"/>
-    <col min="12" max="12" width="3.1796875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="2.81640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="29.26953125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7265625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="2.7265625" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.81640625" style="1"/>
+    <col min="12" max="12" width="3.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="2.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="29.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="2.7109375" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="34"/>
       <c r="B1" s="2" t="s">
         <v>40</v>
@@ -1583,46 +1656,46 @@
       <c r="G1" s="22"/>
       <c r="I1" s="34"/>
       <c r="J1" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K1" s="22"/>
       <c r="L1" s="2"/>
       <c r="M1" s="34"/>
       <c r="O1" s="22"/>
     </row>
-    <row r="2" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I2" s="31"/>
       <c r="K2" s="23"/>
       <c r="M2" s="31"/>
       <c r="O2" s="23"/>
     </row>
-    <row r="3" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="80" t="s">
+    <row r="3" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="80" t="s">
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="80" t="s">
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="80" t="s">
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="90" t="s">
         <v>83</v>
       </c>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="82"/>
-    </row>
-    <row r="4" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="92"/>
+    </row>
+    <row r="4" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
       <c r="B4" s="30" t="s">
         <v>0</v>
@@ -1652,7 +1725,7 @@
       <c r="O4" s="25"/>
       <c r="P4" s="58"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="31" t="s">
         <v>1</v>
@@ -1681,7 +1754,7 @@
       </c>
       <c r="P5" s="18"/>
     </row>
-    <row r="6" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="31" t="s">
         <v>2</v>
@@ -1715,7 +1788,7 @@
       </c>
       <c r="P6" s="18"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="17"/>
       <c r="B7" s="31" t="s">
         <v>3</v>
@@ -1744,7 +1817,7 @@
       </c>
       <c r="P7" s="18"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
       <c r="B8" s="31"/>
       <c r="C8" s="25"/>
@@ -1766,7 +1839,7 @@
       </c>
       <c r="P8" s="18"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="31"/>
       <c r="C9" s="25"/>
@@ -1785,7 +1858,7 @@
       </c>
       <c r="P9" s="18"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="B10" s="31" t="s">
         <v>4</v>
@@ -1811,7 +1884,7 @@
       <c r="O10" s="25"/>
       <c r="P10" s="18"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="B11" s="31" t="s">
         <v>5</v>
@@ -1829,7 +1902,7 @@
       <c r="H11" s="18"/>
       <c r="I11" s="17"/>
       <c r="J11" s="31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K11" s="25">
         <v>21000</v>
@@ -1842,7 +1915,7 @@
       <c r="O11" s="25"/>
       <c r="P11" s="18"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="B12" s="31" t="s">
         <v>6</v>
@@ -1877,7 +1950,7 @@
       </c>
       <c r="P12" s="18"/>
     </row>
-    <row r="13" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="21"/>
       <c r="B13" s="32" t="s">
         <v>14</v>
@@ -1912,7 +1985,7 @@
       </c>
       <c r="P13" s="18"/>
     </row>
-    <row r="14" spans="1:16" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="19"/>
       <c r="B14" s="33"/>
       <c r="C14" s="28"/>
@@ -1940,7 +2013,7 @@
       </c>
       <c r="P14" s="18"/>
     </row>
-    <row r="15" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I15" s="21"/>
       <c r="J15" s="32" t="s">
         <v>95</v>
@@ -1960,7 +2033,7 @@
       </c>
       <c r="P15" s="18"/>
     </row>
-    <row r="16" spans="1:16" ht="18.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:16" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="34"/>
       <c r="B16" s="2" t="s">
         <v>41</v>
@@ -1978,60 +2051,60 @@
       <c r="O16" s="28"/>
       <c r="P16" s="20"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I17" s="31"/>
       <c r="K17" s="23"/>
       <c r="M17" s="31"/>
       <c r="O17" s="23"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I18" s="31"/>
       <c r="K18" s="23"/>
       <c r="M18" s="31"/>
       <c r="O18" s="23"/>
     </row>
-    <row r="19" spans="1:16" s="72" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" s="72" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="71"/>
       <c r="C19" s="73"/>
       <c r="E19" s="71"/>
       <c r="G19" s="73"/>
       <c r="I19" s="71"/>
       <c r="J19" s="74" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K19" s="73"/>
       <c r="M19" s="71"/>
       <c r="O19" s="73"/>
     </row>
-    <row r="20" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I20" s="31"/>
       <c r="K20" s="23"/>
       <c r="M20" s="31"/>
       <c r="O20" s="23"/>
     </row>
-    <row r="21" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="80" t="s">
+    <row r="21" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="81"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="82"/>
-      <c r="E21" s="80" t="s">
+      <c r="B21" s="91"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="81"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="82"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="92"/>
       <c r="I21" s="34"/>
       <c r="J21" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K21" s="22"/>
       <c r="L21" s="2"/>
       <c r="M21" s="34"/>
       <c r="O21" s="22"/>
     </row>
-    <row r="22" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>17</v>
       </c>
@@ -2049,7 +2122,7 @@
       <c r="M22" s="31"/>
       <c r="O22" s="23"/>
     </row>
-    <row r="23" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="17"/>
       <c r="B23" s="31" t="s">
         <v>0</v>
@@ -2061,20 +2134,20 @@
       </c>
       <c r="G23" s="25"/>
       <c r="H23" s="18"/>
-      <c r="I23" s="80" t="s">
+      <c r="I23" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="J23" s="81"/>
-      <c r="K23" s="81"/>
-      <c r="L23" s="82"/>
-      <c r="M23" s="80" t="s">
+      <c r="J23" s="91"/>
+      <c r="K23" s="91"/>
+      <c r="L23" s="92"/>
+      <c r="M23" s="90" t="s">
         <v>83</v>
       </c>
-      <c r="N23" s="81"/>
-      <c r="O23" s="81"/>
-      <c r="P23" s="82"/>
-    </row>
-    <row r="24" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N23" s="91"/>
+      <c r="O23" s="91"/>
+      <c r="P23" s="92"/>
+    </row>
+    <row r="24" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17"/>
       <c r="B24" s="31" t="s">
         <v>1</v>
@@ -2099,7 +2172,7 @@
       <c r="O24" s="24"/>
       <c r="P24" s="16"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
       <c r="B25" s="31" t="s">
         <v>2</v>
@@ -2115,14 +2188,22 @@
       <c r="J25" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="K25" s="25"/>
+      <c r="K25" s="25">
+        <f>Movements!B65</f>
+        <v>50000</v>
+      </c>
       <c r="L25" s="18"/>
       <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="25"/>
+      <c r="N25" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="O25" s="25">
+        <f>Movements!G83</f>
+        <v>62650</v>
+      </c>
       <c r="P25" s="18"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
         <v>18</v>
       </c>
@@ -2136,14 +2217,25 @@
       <c r="J26" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="K26" s="25"/>
+      <c r="K26" s="25">
+        <f>Movements!J65</f>
+        <v>12000</v>
+      </c>
       <c r="L26" s="18"/>
       <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="25"/>
+      <c r="N26" s="98" t="s">
+        <v>131</v>
+      </c>
+      <c r="O26" s="25">
+        <f>K57</f>
+        <v>810</v>
+      </c>
       <c r="P26" s="18"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="R26" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="17"/>
       <c r="B27" s="31" t="s">
         <v>3</v>
@@ -2160,16 +2252,22 @@
       <c r="J27" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="K27" s="25"/>
+      <c r="K27" s="25">
+        <f>Movements!F65</f>
+        <v>13763</v>
+      </c>
       <c r="L27" s="18"/>
       <c r="M27" s="31"/>
       <c r="N27" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="O27" s="29"/>
+        <v>119</v>
+      </c>
+      <c r="O27" s="29">
+        <f>O25+O26</f>
+        <v>63460</v>
+      </c>
       <c r="P27" s="18"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="17"/>
       <c r="B28" s="31" t="s">
         <v>4</v>
@@ -2185,7 +2283,10 @@
       <c r="J28" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="K28" s="25"/>
+      <c r="K28" s="25">
+        <f>Movements!M65</f>
+        <v>11500</v>
+      </c>
       <c r="L28" s="18"/>
       <c r="M28" s="59"/>
       <c r="N28" s="59" t="s">
@@ -2194,7 +2295,7 @@
       <c r="O28" s="25"/>
       <c r="P28" s="18"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="17"/>
       <c r="B29" s="31" t="s">
         <v>5</v>
@@ -2209,13 +2310,13 @@
       <c r="I29" s="17"/>
       <c r="K29" s="25"/>
       <c r="L29" s="18"/>
-      <c r="N29" s="87" t="s">
+      <c r="N29" s="79" t="s">
         <v>89</v>
       </c>
       <c r="O29" s="25"/>
       <c r="P29" s="18"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
       <c r="B30" s="31" t="s">
         <v>6</v>
@@ -2233,11 +2334,16 @@
       </c>
       <c r="K30" s="25"/>
       <c r="L30" s="18"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="25"/>
+      <c r="N30" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="O30" s="25">
+        <f>Movements!C92</f>
+        <v>50000</v>
+      </c>
       <c r="P30" s="18"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="17"/>
       <c r="B31" s="31"/>
       <c r="C31" s="25"/>
@@ -2249,17 +2355,20 @@
       <c r="H31" s="18"/>
       <c r="I31" s="17"/>
       <c r="J31" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="K31" s="25"/>
+        <v>116</v>
+      </c>
+      <c r="K31" s="25">
+        <f>Movements!B74</f>
+        <v>19810</v>
+      </c>
       <c r="L31" s="18"/>
-      <c r="N31" s="88" t="s">
+      <c r="N31" s="80" t="s">
         <v>91</v>
       </c>
       <c r="O31" s="25"/>
       <c r="P31" s="18"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="17"/>
       <c r="B32" s="31"/>
       <c r="C32" s="26"/>
@@ -2273,14 +2382,22 @@
       <c r="J32" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="K32" s="25"/>
+      <c r="K32" s="25">
+        <f>Movements!F74</f>
+        <v>10900</v>
+      </c>
       <c r="L32" s="18"/>
       <c r="M32" s="31"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="25"/>
+      <c r="N32" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="O32" s="25">
+        <f>Movements!K83</f>
+        <v>2420</v>
+      </c>
       <c r="P32" s="18"/>
     </row>
-    <row r="33" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="21"/>
       <c r="B33" s="32" t="s">
         <v>14</v>
@@ -2296,12 +2413,22 @@
       <c r="J33" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="K33" s="25"/>
+      <c r="K33" s="25">
+        <f>Movements!J74</f>
+        <v>600</v>
+      </c>
       <c r="L33" s="18"/>
       <c r="M33" s="31"/>
+      <c r="N33" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="O33" s="23">
+        <f>Movements!K101</f>
+        <v>180</v>
+      </c>
       <c r="P33" s="18"/>
     </row>
-    <row r="34" spans="1:16" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:20" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="19"/>
       <c r="B34" s="33"/>
       <c r="C34" s="28"/>
@@ -2314,28 +2441,42 @@
       <c r="J34" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="K34" s="25"/>
+      <c r="K34" s="25">
+        <f>Movements!B83</f>
+        <v>250</v>
+      </c>
       <c r="L34" s="18"/>
       <c r="M34" s="31"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="25"/>
+      <c r="N34" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="O34" s="25">
+        <f>Movements!C104</f>
+        <v>2000</v>
+      </c>
       <c r="P34" s="18"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I35" s="17"/>
       <c r="K35" s="25"/>
       <c r="L35" s="18"/>
       <c r="M35" s="31"/>
-      <c r="O35" s="25"/>
+      <c r="N35" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="O35" s="25">
+        <f>Movements!K104</f>
+        <v>763</v>
+      </c>
       <c r="P35" s="18"/>
     </row>
-    <row r="36" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="83" t="s">
+    <row r="36" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="83"/>
-      <c r="C36" s="83"/>
-      <c r="D36" s="83"/>
+      <c r="B36" s="93"/>
+      <c r="C36" s="93"/>
+      <c r="D36" s="93"/>
       <c r="I36" s="17"/>
       <c r="J36" s="31"/>
       <c r="K36" s="26"/>
@@ -2344,36 +2485,46 @@
       <c r="N36" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="O36" s="29"/>
+      <c r="O36" s="29">
+        <f>SUM(O28:O35)</f>
+        <v>55363</v>
+      </c>
       <c r="P36" s="18"/>
     </row>
-    <row r="37" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="79" t="s">
+    <row r="37" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="79"/>
-      <c r="C37" s="79"/>
-      <c r="D37" s="79"/>
+      <c r="B37" s="89"/>
+      <c r="C37" s="89"/>
+      <c r="D37" s="89"/>
       <c r="I37" s="21"/>
       <c r="J37" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="K37" s="27"/>
+      <c r="K37" s="27">
+        <f>SUM(K24:K36)</f>
+        <v>118823</v>
+      </c>
       <c r="L37" s="18"/>
       <c r="M37" s="31"/>
       <c r="N37" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="O37" s="27"/>
+        <v>120</v>
+      </c>
+      <c r="O37" s="27">
+        <f>O27+O36</f>
+        <v>118823</v>
+      </c>
       <c r="P37" s="18"/>
-    </row>
-    <row r="38" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="80" t="s">
+      <c r="T37" s="23"/>
+    </row>
+    <row r="38" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="B38" s="81"/>
-      <c r="C38" s="81"/>
-      <c r="D38" s="82"/>
+      <c r="B38" s="91"/>
+      <c r="C38" s="91"/>
+      <c r="D38" s="92"/>
       <c r="I38" s="19"/>
       <c r="J38" s="33"/>
       <c r="K38" s="28"/>
@@ -2383,7 +2534,7 @@
       <c r="O38" s="28"/>
       <c r="P38" s="20"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="15"/>
       <c r="B39" s="36" t="s">
         <v>25</v>
@@ -2395,7 +2546,7 @@
       <c r="M39" s="31"/>
       <c r="O39" s="23"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="17"/>
       <c r="B40" s="37"/>
       <c r="C40" s="25"/>
@@ -2405,7 +2556,7 @@
       <c r="M40" s="31"/>
       <c r="O40" s="23"/>
     </row>
-    <row r="41" spans="1:16" s="72" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:20" s="72" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="75"/>
       <c r="B41" s="76"/>
       <c r="C41" s="77"/>
@@ -2414,13 +2565,13 @@
       <c r="G41" s="73"/>
       <c r="I41" s="71"/>
       <c r="J41" s="74" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K41" s="73"/>
       <c r="M41" s="71"/>
       <c r="O41" s="73"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="17"/>
       <c r="B42" s="37"/>
       <c r="C42" s="25"/>
@@ -2430,55 +2581,55 @@
       <c r="M42" s="31"/>
       <c r="O42" s="23"/>
     </row>
-    <row r="43" spans="1:16" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="17"/>
       <c r="B43" s="31" t="s">
         <v>26</v>
       </c>
       <c r="C43" s="25"/>
       <c r="D43" s="18"/>
-      <c r="I43" s="83" t="s">
-        <v>112</v>
-      </c>
-      <c r="J43" s="83"/>
-      <c r="K43" s="83"/>
-      <c r="L43" s="83"/>
+      <c r="I43" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="J43" s="93"/>
+      <c r="K43" s="93"/>
+      <c r="L43" s="93"/>
       <c r="M43" s="31"/>
       <c r="O43" s="23"/>
     </row>
-    <row r="44" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="17"/>
       <c r="B44" s="31" t="s">
         <v>27</v>
       </c>
       <c r="C44" s="25"/>
       <c r="D44" s="18"/>
-      <c r="I44" s="79" t="s">
-        <v>114</v>
-      </c>
-      <c r="J44" s="79"/>
-      <c r="K44" s="79"/>
-      <c r="L44" s="79"/>
+      <c r="I44" s="89" t="s">
+        <v>113</v>
+      </c>
+      <c r="J44" s="89"/>
+      <c r="K44" s="89"/>
+      <c r="L44" s="89"/>
       <c r="M44" s="31"/>
       <c r="O44" s="23"/>
     </row>
-    <row r="45" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="17"/>
       <c r="B45" s="31" t="s">
         <v>28</v>
       </c>
       <c r="C45" s="25"/>
       <c r="D45" s="18"/>
-      <c r="I45" s="80" t="s">
-        <v>113</v>
-      </c>
-      <c r="J45" s="81"/>
-      <c r="K45" s="81"/>
-      <c r="L45" s="82"/>
+      <c r="I45" s="90" t="s">
+        <v>112</v>
+      </c>
+      <c r="J45" s="91"/>
+      <c r="K45" s="91"/>
+      <c r="L45" s="92"/>
       <c r="M45" s="31"/>
       <c r="O45" s="23"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="17"/>
       <c r="B46" s="31" t="s">
         <v>20</v>
@@ -2489,12 +2640,15 @@
       <c r="J46" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="K46" s="25"/>
+      <c r="K46" s="25">
+        <f>Movements!C101</f>
+        <v>5050</v>
+      </c>
       <c r="L46" s="18"/>
       <c r="M46" s="31"/>
       <c r="O46" s="23"/>
     </row>
-    <row r="47" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="17"/>
       <c r="B47" s="32" t="s">
         <v>30</v>
@@ -2505,12 +2659,15 @@
       <c r="J47" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="K47" s="25"/>
+      <c r="K47" s="25">
+        <f>Movements!F101</f>
+        <v>3040</v>
+      </c>
       <c r="L47" s="18"/>
       <c r="M47" s="31"/>
       <c r="O47" s="23"/>
     </row>
-    <row r="48" spans="1:16" ht="16" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:20" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A48" s="17"/>
       <c r="B48" s="37" t="s">
         <v>31</v>
@@ -2521,12 +2678,15 @@
       <c r="J48" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="K48" s="25"/>
+      <c r="K48" s="25">
+        <f>Movements!F104</f>
+        <v>50</v>
+      </c>
       <c r="L48" s="18"/>
       <c r="M48" s="31"/>
       <c r="O48" s="23"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="17"/>
       <c r="B49" s="37"/>
       <c r="C49" s="25"/>
@@ -2535,12 +2695,15 @@
       <c r="J49" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="K49" s="25"/>
+      <c r="K49" s="25">
+        <f>Movements!J92</f>
+        <v>150</v>
+      </c>
       <c r="L49" s="18"/>
       <c r="M49" s="31"/>
       <c r="O49" s="23"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="17"/>
       <c r="B50" s="31" t="s">
         <v>32</v>
@@ -2551,12 +2714,15 @@
       <c r="J50" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="K50" s="29"/>
+      <c r="K50" s="29">
+        <f>K46-SUM(K47:K49)</f>
+        <v>1810</v>
+      </c>
       <c r="L50" s="18"/>
       <c r="M50" s="31"/>
       <c r="O50" s="23"/>
     </row>
-    <row r="51" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="21"/>
       <c r="B51" s="32"/>
       <c r="C51" s="27"/>
@@ -2565,12 +2731,14 @@
       <c r="J51" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="K51" s="25"/>
+      <c r="K51" s="25">
+        <v>0</v>
+      </c>
       <c r="L51" s="18"/>
       <c r="M51" s="31"/>
       <c r="O51" s="23"/>
     </row>
-    <row r="52" spans="1:15" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:15" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="19"/>
       <c r="B52" s="33"/>
       <c r="C52" s="28"/>
@@ -2579,22 +2747,27 @@
       <c r="J52" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="K52" s="29"/>
+      <c r="K52" s="29">
+        <f>K50-K51</f>
+        <v>1810</v>
+      </c>
       <c r="L52" s="18"/>
       <c r="M52" s="31"/>
       <c r="O52" s="23"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I53" s="17"/>
       <c r="J53" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="K53" s="25"/>
+      <c r="K53" s="25">
+        <v>0</v>
+      </c>
       <c r="L53" s="18"/>
       <c r="M53" s="31"/>
       <c r="O53" s="23"/>
     </row>
-    <row r="54" spans="1:15" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A54" s="34" t="s">
         <v>42</v>
       </c>
@@ -2602,34 +2775,42 @@
       <c r="J54" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="K54" s="25"/>
+      <c r="K54" s="25">
+        <f>Movements!F92</f>
+        <v>1000</v>
+      </c>
       <c r="L54" s="18"/>
       <c r="M54" s="31"/>
       <c r="O54" s="23"/>
     </row>
-    <row r="55" spans="1:15" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A55" s="34"/>
       <c r="I55" s="17"/>
       <c r="J55" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="K55" s="25"/>
+      <c r="K55" s="25">
+        <f>SUM(K52:K53)-K54</f>
+        <v>810</v>
+      </c>
       <c r="L55" s="18"/>
       <c r="M55" s="31"/>
       <c r="O55" s="23"/>
     </row>
-    <row r="56" spans="1:15" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A56" s="34"/>
       <c r="I56" s="17"/>
       <c r="J56" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="K56" s="25"/>
+        <v>133</v>
+      </c>
+      <c r="K56" s="25">
+        <v>0</v>
+      </c>
       <c r="L56" s="18"/>
       <c r="M56" s="31"/>
       <c r="O56" s="23"/>
     </row>
-    <row r="57" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="34"/>
       <c r="B57" s="2" t="s">
         <v>40</v>
@@ -2642,12 +2823,15 @@
       <c r="J57" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="K57" s="27"/>
+      <c r="K57" s="27">
+        <f>K55-K56</f>
+        <v>810</v>
+      </c>
       <c r="L57" s="18"/>
       <c r="M57" s="31"/>
       <c r="O57" s="23"/>
     </row>
-    <row r="58" spans="1:15" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:15" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I58" s="17"/>
       <c r="J58" s="32"/>
       <c r="K58" s="25"/>
@@ -2655,7 +2839,7 @@
       <c r="M58" s="31"/>
       <c r="O58" s="23"/>
     </row>
-    <row r="59" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="15"/>
       <c r="B59" s="30" t="s">
         <v>0</v>
@@ -2679,7 +2863,7 @@
       <c r="M59" s="31"/>
       <c r="O59" s="23"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="17"/>
       <c r="B60" s="31" t="s">
         <v>1</v>
@@ -2692,7 +2876,7 @@
       <c r="G60" s="25"/>
       <c r="H60" s="18"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="17"/>
       <c r="B61" s="31" t="s">
         <v>2</v>
@@ -2709,7 +2893,7 @@
       </c>
       <c r="H61" s="18"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="17"/>
       <c r="B62" s="31" t="s">
         <v>3</v>
@@ -2724,7 +2908,7 @@
       <c r="G62" s="25"/>
       <c r="H62" s="18"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="17"/>
       <c r="B63" s="31" t="s">
         <v>4</v>
@@ -2741,7 +2925,7 @@
       </c>
       <c r="H63" s="18"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="17"/>
       <c r="B64" s="31" t="s">
         <v>5</v>
@@ -2758,7 +2942,7 @@
       </c>
       <c r="H64" s="18"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="17"/>
       <c r="B65" s="31" t="s">
         <v>6</v>
@@ -2776,7 +2960,7 @@
       </c>
       <c r="H65" s="18"/>
     </row>
-    <row r="66" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="21"/>
       <c r="B66" s="32" t="s">
         <v>14</v>
@@ -2795,7 +2979,7 @@
       </c>
       <c r="H66" s="18"/>
     </row>
-    <row r="67" spans="1:8" ht="5.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:8" ht="5.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="19"/>
       <c r="B67" s="33"/>
       <c r="C67" s="28"/>
@@ -2805,8 +2989,8 @@
       <c r="G67" s="28"/>
       <c r="H67" s="20"/>
     </row>
-    <row r="68" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="69" spans="1:8" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A69" s="34"/>
       <c r="B69" s="2" t="s">
         <v>41</v>
@@ -2816,22 +3000,22 @@
       <c r="E69" s="34"/>
       <c r="G69" s="22"/>
     </row>
-    <row r="70" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="71" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="80" t="s">
+    <row r="70" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="71" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="B71" s="81"/>
-      <c r="C71" s="81"/>
-      <c r="D71" s="82"/>
-      <c r="E71" s="80" t="s">
+      <c r="B71" s="91"/>
+      <c r="C71" s="91"/>
+      <c r="D71" s="92"/>
+      <c r="E71" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="F71" s="81"/>
-      <c r="G71" s="81"/>
-      <c r="H71" s="82"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F71" s="91"/>
+      <c r="G71" s="91"/>
+      <c r="H71" s="92"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="15" t="s">
         <v>17</v>
       </c>
@@ -2845,33 +3029,33 @@
       <c r="G72" s="24"/>
       <c r="H72" s="16"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="17"/>
       <c r="B73" s="31" t="s">
         <v>0</v>
       </c>
       <c r="C73" s="25">
         <f>+Movements!B65</f>
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="D73" s="18"/>
       <c r="F73" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G73" s="25">
-        <f>+Movements!G83</f>
-        <v>0</v>
+      <c r="G73" s="25" t="e">
+        <f>+Movements!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H73" s="18"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="17"/>
       <c r="B74" s="31" t="s">
         <v>1</v>
       </c>
       <c r="C74" s="25">
         <f>+Movements!F65</f>
-        <v>0</v>
+        <v>13763</v>
       </c>
       <c r="D74" s="18"/>
       <c r="F74" s="31" t="s">
@@ -2879,30 +3063,30 @@
       </c>
       <c r="G74" s="25">
         <f>+C94</f>
-        <v>0</v>
+        <v>860</v>
       </c>
       <c r="H74" s="18"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="17"/>
       <c r="B75" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C75" s="25">
         <f>+Movements!J65</f>
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="D75" s="18"/>
       <c r="F75" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="G75" s="29">
+      <c r="G75" s="29" t="e">
         <f>SUM(G73:G74)</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="H75" s="18"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="17" t="s">
         <v>18</v>
       </c>
@@ -2913,14 +3097,14 @@
       <c r="G76" s="25"/>
       <c r="H76" s="18"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="17"/>
       <c r="B77" s="31" t="s">
         <v>3</v>
       </c>
       <c r="C77" s="25">
         <f>+Movements!B74</f>
-        <v>0</v>
+        <v>19810</v>
       </c>
       <c r="D77" s="18"/>
       <c r="E77" s="31" t="s">
@@ -2930,52 +3114,52 @@
       <c r="G77" s="25"/>
       <c r="H77" s="18"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="17"/>
       <c r="B78" s="31" t="s">
         <v>4</v>
       </c>
       <c r="C78" s="25">
         <f>+Movements!F74</f>
-        <v>0</v>
+        <v>10900</v>
       </c>
       <c r="D78" s="18"/>
       <c r="F78" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="G78" s="25">
-        <f>+Movements!K83</f>
-        <v>0</v>
+      <c r="G78" s="25" t="e">
+        <f>+Movements!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H78" s="18"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="17"/>
       <c r="B79" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C79" s="25">
         <f>+Movements!J74</f>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="D79" s="18"/>
       <c r="F79" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="G79" s="25">
-        <f>+Movements!C92</f>
-        <v>0</v>
+      <c r="G79" s="25" t="e">
+        <f>+Movements!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H79" s="18"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="17"/>
       <c r="B80" s="31" t="s">
         <v>6</v>
       </c>
       <c r="C80" s="25">
         <f>+Movements!B83</f>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="D80" s="18"/>
       <c r="F80" s="31" t="s">
@@ -2983,11 +3167,11 @@
       </c>
       <c r="G80" s="25">
         <f>+Movements!K101</f>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="H80" s="18"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="17"/>
       <c r="B81" s="31"/>
       <c r="C81" s="25"/>
@@ -3001,7 +3185,7 @@
       </c>
       <c r="H81" s="18"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="17"/>
       <c r="B82" s="31"/>
       <c r="C82" s="26"/>
@@ -3009,32 +3193,32 @@
       <c r="F82" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G82" s="29">
+      <c r="G82" s="29" t="e">
         <f>SUM(G78:G81)</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="H82" s="18"/>
     </row>
-    <row r="83" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="21"/>
       <c r="B83" s="32" t="s">
         <v>14</v>
       </c>
       <c r="C83" s="27">
         <f>SUM(C73:C82)</f>
-        <v>0</v>
+        <v>107323</v>
       </c>
       <c r="D83" s="18"/>
       <c r="F83" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="G83" s="27">
+      <c r="G83" s="27" t="e">
         <f>+G75+G82</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="H83" s="18"/>
     </row>
-    <row r="84" spans="1:8" ht="5.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:8" ht="5.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="19"/>
       <c r="B84" s="33"/>
       <c r="C84" s="28"/>
@@ -3044,32 +3228,32 @@
       <c r="G84" s="28"/>
       <c r="H84" s="20"/>
     </row>
-    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="86" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="83" t="s">
+    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="B86" s="83"/>
-      <c r="C86" s="83"/>
-      <c r="D86" s="83"/>
-    </row>
-    <row r="87" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="79" t="s">
+      <c r="B86" s="93"/>
+      <c r="C86" s="93"/>
+      <c r="D86" s="93"/>
+    </row>
+    <row r="87" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="B87" s="79"/>
-      <c r="C87" s="79"/>
-      <c r="D87" s="79"/>
-    </row>
-    <row r="88" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="80" t="s">
+      <c r="B87" s="89"/>
+      <c r="C87" s="89"/>
+      <c r="D87" s="89"/>
+    </row>
+    <row r="88" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="B88" s="81"/>
-      <c r="C88" s="81"/>
-      <c r="D88" s="82"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B88" s="91"/>
+      <c r="C88" s="91"/>
+      <c r="D88" s="92"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="15"/>
       <c r="B89" s="36" t="s">
         <v>25</v>
@@ -3077,18 +3261,18 @@
       <c r="C89" s="24"/>
       <c r="D89" s="16"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="17"/>
       <c r="B90" s="31" t="s">
         <v>26</v>
       </c>
       <c r="C90" s="25">
         <f>+Movements!F101</f>
-        <v>0</v>
+        <v>3040</v>
       </c>
       <c r="D90" s="18"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="17"/>
       <c r="B91" s="31" t="s">
         <v>38</v>
@@ -3099,51 +3283,51 @@
       </c>
       <c r="D91" s="18"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="17"/>
       <c r="B92" s="31" t="s">
         <v>28</v>
       </c>
       <c r="C92" s="25">
         <f>+Movements!F86</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="D92" s="18"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="17"/>
       <c r="B93" s="31" t="s">
         <v>29</v>
       </c>
       <c r="C93" s="25">
         <f>+Movements!J92</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D93" s="18"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="17"/>
       <c r="B94" s="31" t="s">
         <v>20</v>
       </c>
       <c r="C94" s="25">
         <f>+C97-SUM(C90:C93)</f>
-        <v>0</v>
+        <v>860</v>
       </c>
       <c r="D94" s="18"/>
     </row>
-    <row r="95" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="17"/>
       <c r="B95" s="32" t="s">
         <v>30</v>
       </c>
       <c r="C95" s="27">
         <f>SUM(C90:C94)</f>
-        <v>0</v>
+        <v>5050</v>
       </c>
       <c r="D95" s="18"/>
     </row>
-    <row r="96" spans="1:8" ht="16" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A96" s="17"/>
       <c r="B96" s="37" t="s">
         <v>31</v>
@@ -3151,18 +3335,18 @@
       <c r="C96" s="25"/>
       <c r="D96" s="18"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="17"/>
       <c r="B97" s="31" t="s">
         <v>32</v>
       </c>
       <c r="C97" s="25">
         <f>+Movements!C101</f>
-        <v>0</v>
+        <v>5050</v>
       </c>
       <c r="D97" s="18"/>
     </row>
-    <row r="98" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="21"/>
       <c r="B98" s="32"/>
       <c r="C98" s="27">
@@ -3170,7 +3354,7 @@
       </c>
       <c r="D98" s="18"/>
     </row>
-    <row r="99" spans="1:4" ht="6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:4" ht="6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="19"/>
       <c r="B99" s="33"/>
       <c r="C99" s="28"/>
@@ -3211,43 +3395,43 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N110"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="K107" sqref="K107"/>
+    <sheetView topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K83" sqref="K83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.7265625" style="47" customWidth="1"/>
-    <col min="2" max="3" width="9.7265625" style="39" customWidth="1"/>
-    <col min="4" max="4" width="3.7265625" style="39" customWidth="1"/>
-    <col min="5" max="5" width="3.7265625" style="44" customWidth="1"/>
-    <col min="6" max="7" width="9.7265625" style="39" customWidth="1"/>
-    <col min="8" max="8" width="3.7265625" style="39" customWidth="1"/>
-    <col min="9" max="9" width="3.7265625" style="44" customWidth="1"/>
-    <col min="10" max="11" width="9.7265625" style="39" customWidth="1"/>
-    <col min="12" max="12" width="3.7265625" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="47" customWidth="1"/>
+    <col min="2" max="3" width="9.7109375" style="39" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" style="39" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" style="44" customWidth="1"/>
+    <col min="6" max="7" width="9.7109375" style="39" customWidth="1"/>
+    <col min="8" max="8" width="3.7109375" style="39" customWidth="1"/>
+    <col min="9" max="9" width="3.7109375" style="44" customWidth="1"/>
+    <col min="10" max="11" width="9.7109375" style="39" customWidth="1"/>
+    <col min="12" max="12" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="84" t="s">
+    <row r="1" spans="2:11" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="84"/>
+      <c r="C1" s="94"/>
       <c r="D1" s="49"/>
-      <c r="F1" s="84" t="s">
+      <c r="F1" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="84"/>
+      <c r="G1" s="94"/>
       <c r="H1" s="49"/>
-      <c r="J1" s="84" t="s">
+      <c r="J1" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="84"/>
-    </row>
-    <row r="2" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K1" s="94"/>
+    </row>
+    <row r="2" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B2" s="40">
         <v>50000</v>
       </c>
@@ -3263,7 +3447,7 @@
       </c>
       <c r="K2" s="41"/>
     </row>
-    <row r="3" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B3" s="42"/>
       <c r="C3" s="43"/>
       <c r="D3" s="50"/>
@@ -3273,7 +3457,7 @@
       <c r="J3" s="42"/>
       <c r="K3" s="43"/>
     </row>
-    <row r="4" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B4" s="42"/>
       <c r="C4" s="43"/>
       <c r="D4" s="50"/>
@@ -3283,7 +3467,7 @@
       <c r="J4" s="42"/>
       <c r="K4" s="43"/>
     </row>
-    <row r="5" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B5" s="42"/>
       <c r="C5" s="43"/>
       <c r="D5" s="50"/>
@@ -3293,7 +3477,7 @@
       <c r="J5" s="42"/>
       <c r="K5" s="43"/>
     </row>
-    <row r="6" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="50"/>
@@ -3303,7 +3487,7 @@
       <c r="J6" s="42"/>
       <c r="K6" s="43"/>
     </row>
-    <row r="7" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B7" s="42"/>
       <c r="C7" s="43"/>
       <c r="D7" s="50"/>
@@ -3313,24 +3497,24 @@
       <c r="J7" s="42"/>
       <c r="K7" s="43"/>
     </row>
-    <row r="8" spans="2:11" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="2:11" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="84" t="s">
+    <row r="8" spans="2:11" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="2:11" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="84"/>
+      <c r="C9" s="94"/>
       <c r="D9" s="49"/>
-      <c r="F9" s="84" t="s">
+      <c r="F9" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="84"/>
+      <c r="G9" s="94"/>
       <c r="H9" s="49"/>
-      <c r="J9" s="84" t="s">
+      <c r="J9" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="K9" s="84"/>
-    </row>
-    <row r="10" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K9" s="94"/>
+    </row>
+    <row r="10" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B10" s="40">
         <v>20000</v>
       </c>
@@ -3346,7 +3530,7 @@
       </c>
       <c r="K10" s="41"/>
     </row>
-    <row r="11" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B11" s="42"/>
       <c r="C11" s="43"/>
       <c r="D11" s="50"/>
@@ -3356,7 +3540,7 @@
       <c r="J11" s="42"/>
       <c r="K11" s="43"/>
     </row>
-    <row r="12" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B12" s="42"/>
       <c r="C12" s="43"/>
       <c r="D12" s="50"/>
@@ -3366,7 +3550,7 @@
       <c r="J12" s="42"/>
       <c r="K12" s="43"/>
     </row>
-    <row r="13" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B13" s="42"/>
       <c r="C13" s="43"/>
       <c r="D13" s="50"/>
@@ -3376,7 +3560,7 @@
       <c r="J13" s="42"/>
       <c r="K13" s="43"/>
     </row>
-    <row r="14" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B14" s="42"/>
       <c r="C14" s="43"/>
       <c r="D14" s="50"/>
@@ -3386,7 +3570,7 @@
       <c r="J14" s="42"/>
       <c r="K14" s="43"/>
     </row>
-    <row r="15" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B15" s="42"/>
       <c r="C15" s="43"/>
       <c r="D15" s="50"/>
@@ -3396,24 +3580,24 @@
       <c r="J15" s="42"/>
       <c r="K15" s="43"/>
     </row>
-    <row r="16" spans="2:11" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:11" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="84" t="s">
+    <row r="16" spans="2:11" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="2:11" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="84"/>
+      <c r="C17" s="94"/>
       <c r="D17" s="49"/>
-      <c r="F17" s="84" t="s">
+      <c r="F17" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="84"/>
+      <c r="G17" s="94"/>
       <c r="H17" s="49"/>
-      <c r="J17" s="84" t="s">
+      <c r="J17" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="K17" s="84"/>
-    </row>
-    <row r="18" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K17" s="94"/>
+    </row>
+    <row r="18" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B18" s="40">
         <v>500</v>
       </c>
@@ -3429,7 +3613,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="19" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B19" s="42"/>
       <c r="C19" s="43"/>
       <c r="D19" s="50"/>
@@ -3439,7 +3623,7 @@
       <c r="J19" s="42"/>
       <c r="K19" s="43"/>
     </row>
-    <row r="20" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B20" s="42"/>
       <c r="C20" s="43"/>
       <c r="D20" s="50"/>
@@ -3449,7 +3633,7 @@
       <c r="J20" s="42"/>
       <c r="K20" s="43"/>
     </row>
-    <row r="21" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B21" s="42"/>
       <c r="C21" s="43"/>
       <c r="D21" s="50"/>
@@ -3459,7 +3643,7 @@
       <c r="J21" s="42"/>
       <c r="K21" s="43"/>
     </row>
-    <row r="22" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B22" s="42"/>
       <c r="C22" s="43"/>
       <c r="D22" s="50"/>
@@ -3469,7 +3653,7 @@
       <c r="J22" s="42"/>
       <c r="K22" s="43"/>
     </row>
-    <row r="23" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B23" s="42"/>
       <c r="C23" s="43"/>
       <c r="D23" s="50"/>
@@ -3479,15 +3663,15 @@
       <c r="J23" s="42"/>
       <c r="K23" s="43"/>
     </row>
-    <row r="24" spans="2:11" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="2:11" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="84" t="s">
+    <row r="24" spans="2:11" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="2:11" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="86"/>
+      <c r="C25" s="96"/>
       <c r="D25" s="51"/>
     </row>
-    <row r="26" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B26" s="40"/>
       <c r="C26" s="41">
         <v>30000</v>
@@ -3499,7 +3683,7 @@
       <c r="J26" s="40"/>
       <c r="K26" s="41"/>
     </row>
-    <row r="27" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B27" s="42"/>
       <c r="C27" s="43"/>
       <c r="D27" s="50"/>
@@ -3509,7 +3693,7 @@
       <c r="J27" s="42"/>
       <c r="K27" s="43"/>
     </row>
-    <row r="28" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B28" s="42"/>
       <c r="C28" s="43"/>
       <c r="D28" s="50"/>
@@ -3519,7 +3703,7 @@
       <c r="J28" s="42"/>
       <c r="K28" s="43"/>
     </row>
-    <row r="29" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B29" s="42"/>
       <c r="C29" s="43"/>
       <c r="D29" s="50"/>
@@ -3529,7 +3713,7 @@
       <c r="J29" s="42"/>
       <c r="K29" s="43"/>
     </row>
-    <row r="30" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B30" s="42"/>
       <c r="C30" s="43"/>
       <c r="D30" s="50"/>
@@ -3539,7 +3723,7 @@
       <c r="J30" s="42"/>
       <c r="K30" s="43"/>
     </row>
-    <row r="31" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B31" s="42"/>
       <c r="C31" s="43"/>
       <c r="D31" s="50"/>
@@ -3549,9 +3733,9 @@
       <c r="J31" s="42"/>
       <c r="K31" s="43"/>
     </row>
-    <row r="32" spans="2:11" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="2:11" ht="13" hidden="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="2:11" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B34" s="40"/>
       <c r="C34" s="41"/>
       <c r="D34" s="50"/>
@@ -3561,7 +3745,7 @@
       <c r="J34" s="40"/>
       <c r="K34" s="41"/>
     </row>
-    <row r="35" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B35" s="42"/>
       <c r="C35" s="43"/>
       <c r="D35" s="50"/>
@@ -3571,7 +3755,7 @@
       <c r="J35" s="42"/>
       <c r="K35" s="43"/>
     </row>
-    <row r="36" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B36" s="42"/>
       <c r="C36" s="43"/>
       <c r="D36" s="50"/>
@@ -3581,7 +3765,7 @@
       <c r="J36" s="42"/>
       <c r="K36" s="43"/>
     </row>
-    <row r="37" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B37" s="42"/>
       <c r="C37" s="43"/>
       <c r="D37" s="50"/>
@@ -3591,7 +3775,7 @@
       <c r="J37" s="42"/>
       <c r="K37" s="43"/>
     </row>
-    <row r="38" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B38" s="42"/>
       <c r="C38" s="43"/>
       <c r="D38" s="50"/>
@@ -3601,7 +3785,7 @@
       <c r="J38" s="42"/>
       <c r="K38" s="43"/>
     </row>
-    <row r="39" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B39" s="42"/>
       <c r="C39" s="43"/>
       <c r="D39" s="50"/>
@@ -3611,9 +3795,9 @@
       <c r="J39" s="42"/>
       <c r="K39" s="43"/>
     </row>
-    <row r="40" spans="2:11" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="2:11" ht="13" hidden="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:11" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="2:11" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B42" s="40"/>
       <c r="C42" s="41"/>
       <c r="D42" s="50"/>
@@ -3623,7 +3807,7 @@
       <c r="J42" s="40"/>
       <c r="K42" s="41"/>
     </row>
-    <row r="43" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B43" s="42"/>
       <c r="C43" s="43"/>
       <c r="D43" s="50"/>
@@ -3633,7 +3817,7 @@
       <c r="J43" s="42"/>
       <c r="K43" s="43"/>
     </row>
-    <row r="44" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B44" s="42"/>
       <c r="C44" s="43"/>
       <c r="D44" s="50"/>
@@ -3643,7 +3827,7 @@
       <c r="J44" s="42"/>
       <c r="K44" s="43"/>
     </row>
-    <row r="45" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B45" s="42"/>
       <c r="C45" s="43"/>
       <c r="D45" s="50"/>
@@ -3653,7 +3837,7 @@
       <c r="J45" s="42"/>
       <c r="K45" s="43"/>
     </row>
-    <row r="46" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B46" s="42"/>
       <c r="C46" s="43"/>
       <c r="D46" s="50"/>
@@ -3663,7 +3847,7 @@
       <c r="J46" s="42"/>
       <c r="K46" s="43"/>
     </row>
-    <row r="47" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B47" s="42"/>
       <c r="C47" s="43"/>
       <c r="D47" s="50"/>
@@ -3673,46 +3857,46 @@
       <c r="J47" s="42"/>
       <c r="K47" s="43"/>
     </row>
-    <row r="48" spans="2:11" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="2:14" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="2:14" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="2:14" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="2:14" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="2:14" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="2:14" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="2:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:11" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="49" spans="2:14" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="50" spans="2:14" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="51" spans="2:14" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="52" spans="2:14" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="53" spans="2:14" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="2:14" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="2:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="46" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="56" spans="2:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="46" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="46"/>
     </row>
-    <row r="58" spans="2:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="84" t="s">
+    <row r="58" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="94" t="s">
         <v>67</v>
       </c>
-      <c r="C58" s="84"/>
+      <c r="C58" s="94"/>
       <c r="D58" s="49"/>
-      <c r="F58" s="84" t="s">
+      <c r="F58" s="94" t="s">
         <v>68</v>
       </c>
-      <c r="G58" s="84"/>
+      <c r="G58" s="94"/>
       <c r="H58" s="49"/>
-      <c r="J58" s="84" t="s">
+      <c r="J58" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="K58" s="84"/>
+      <c r="K58" s="94"/>
       <c r="M58" s="65" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B59" s="40">
         <v>50000</v>
       </c>
@@ -3732,7 +3916,7 @@
       </c>
       <c r="N59" s="41"/>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B60" s="42"/>
       <c r="C60" s="43"/>
       <c r="D60" s="50"/>
@@ -3746,11 +3930,16 @@
       <c r="M60" s="42"/>
       <c r="N60" s="43"/>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B61" s="42"/>
       <c r="C61" s="43"/>
       <c r="D61" s="50"/>
-      <c r="F61" s="42"/>
+      <c r="E61" s="85" t="s">
+        <v>128</v>
+      </c>
+      <c r="F61" s="84">
+        <v>763</v>
+      </c>
       <c r="G61" s="43"/>
       <c r="H61" s="50"/>
       <c r="J61" s="42"/>
@@ -3758,7 +3947,7 @@
       <c r="M61" s="42"/>
       <c r="N61" s="43"/>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B62" s="42"/>
       <c r="C62" s="43"/>
       <c r="D62" s="50"/>
@@ -3770,7 +3959,7 @@
       <c r="M62" s="42"/>
       <c r="N62" s="43"/>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B63" s="42"/>
       <c r="C63" s="43"/>
       <c r="D63" s="50"/>
@@ -3782,7 +3971,7 @@
       <c r="M63" s="42"/>
       <c r="N63" s="43"/>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B64" s="42"/>
       <c r="C64" s="43"/>
       <c r="D64" s="50"/>
@@ -3794,75 +3983,128 @@
       <c r="M64" s="42"/>
       <c r="N64" s="43"/>
     </row>
-    <row r="65" spans="1:14" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="52"/>
-      <c r="B65" s="53"/>
-      <c r="C65" s="53"/>
+      <c r="B65" s="97">
+        <f>SUM(B59:B64)-SUM(C59:C64)</f>
+        <v>50000</v>
+      </c>
+      <c r="C65" s="97"/>
       <c r="D65" s="53"/>
       <c r="E65" s="54"/>
-      <c r="F65" s="53"/>
-      <c r="G65" s="53"/>
+      <c r="F65" s="97">
+        <f>SUM(F59:F64)-SUM(G59:G64)</f>
+        <v>13763</v>
+      </c>
+      <c r="G65" s="97"/>
       <c r="H65" s="53"/>
       <c r="I65" s="54"/>
-      <c r="J65" s="53"/>
-      <c r="K65" s="53"/>
-      <c r="M65" s="53"/>
-      <c r="N65" s="53"/>
-    </row>
-    <row r="67" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="84" t="s">
-        <v>117</v>
-      </c>
-      <c r="C67" s="84"/>
+      <c r="J65" s="97">
+        <f>SUM(J59:J64)-SUM(K59:K64)</f>
+        <v>12000</v>
+      </c>
+      <c r="K65" s="97"/>
+      <c r="M65" s="97">
+        <f>SUM(M59:M64)-SUM(N59:N64)</f>
+        <v>11500</v>
+      </c>
+      <c r="N65" s="97"/>
+    </row>
+    <row r="67" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="94" t="s">
+        <v>116</v>
+      </c>
+      <c r="C67" s="94"/>
       <c r="D67" s="49"/>
-      <c r="F67" s="84" t="s">
+      <c r="F67" s="94" t="s">
         <v>71</v>
       </c>
-      <c r="G67" s="84"/>
+      <c r="G67" s="94"/>
       <c r="H67" s="49"/>
-      <c r="J67" s="84" t="s">
+      <c r="J67" s="94" t="s">
         <v>72</v>
       </c>
-      <c r="K67" s="84"/>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K67" s="94"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B68" s="40">
         <v>21000</v>
       </c>
-      <c r="C68" s="41"/>
-      <c r="D68" s="50"/>
+      <c r="C68" s="81">
+        <v>150</v>
+      </c>
+      <c r="D68" s="82" t="s">
+        <v>124</v>
+      </c>
       <c r="E68" s="48"/>
       <c r="F68" s="40">
         <v>6400</v>
       </c>
-      <c r="G68" s="41"/>
-      <c r="H68" s="50"/>
+      <c r="G68" s="81">
+        <v>800</v>
+      </c>
+      <c r="H68" s="82" t="s">
+        <v>121</v>
+      </c>
       <c r="I68" s="48"/>
       <c r="J68" s="40">
         <v>2000</v>
       </c>
-      <c r="K68" s="41"/>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B69" s="42"/>
-      <c r="C69" s="43"/>
-      <c r="D69" s="50"/>
-      <c r="F69" s="42"/>
+      <c r="K68" s="81">
+        <v>1000</v>
+      </c>
+      <c r="L68" s="86" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A69" s="83" t="s">
+        <v>129</v>
+      </c>
+      <c r="B69" s="84">
+        <v>2000</v>
+      </c>
+      <c r="C69" s="88">
+        <v>40</v>
+      </c>
+      <c r="D69" s="82" t="s">
+        <v>125</v>
+      </c>
+      <c r="E69" s="85" t="s">
+        <v>126</v>
+      </c>
+      <c r="F69" s="84">
+        <v>5300</v>
+      </c>
       <c r="G69" s="43"/>
       <c r="H69" s="50"/>
-      <c r="J69" s="42"/>
-      <c r="K69" s="43"/>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I69" s="85" t="s">
+        <v>122</v>
+      </c>
+      <c r="J69" s="84">
+        <v>800</v>
+      </c>
+      <c r="K69" s="88">
+        <v>1200</v>
+      </c>
+      <c r="L69" s="86" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B70" s="42"/>
-      <c r="C70" s="43"/>
-      <c r="D70" s="50"/>
+      <c r="C70" s="88">
+        <v>3000</v>
+      </c>
+      <c r="D70" s="82" t="s">
+        <v>126</v>
+      </c>
       <c r="G70" s="43"/>
       <c r="H70" s="50"/>
       <c r="J70" s="42"/>
       <c r="K70" s="43"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B71" s="42"/>
       <c r="C71" s="43"/>
       <c r="D71" s="50"/>
@@ -3872,7 +4114,7 @@
       <c r="J71" s="42"/>
       <c r="K71" s="43"/>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B72" s="42"/>
       <c r="C72" s="43"/>
       <c r="D72" s="50"/>
@@ -3882,7 +4124,7 @@
       <c r="J72" s="42"/>
       <c r="K72" s="43"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B73" s="42"/>
       <c r="C73" s="43"/>
       <c r="D73" s="50"/>
@@ -3892,64 +4134,102 @@
       <c r="J73" s="42"/>
       <c r="K73" s="43"/>
     </row>
-    <row r="74" spans="1:14" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="52"/>
-      <c r="B74" s="53"/>
-      <c r="C74" s="53"/>
+      <c r="B74" s="97">
+        <f>SUM(B68:B73)-SUM(C68:C73)</f>
+        <v>19810</v>
+      </c>
+      <c r="C74" s="97"/>
       <c r="D74" s="53"/>
       <c r="E74" s="54"/>
-      <c r="F74" s="53"/>
-      <c r="G74" s="53"/>
+      <c r="F74" s="97">
+        <f>SUM(F68:F73)-SUM(G68:G73)</f>
+        <v>10900</v>
+      </c>
+      <c r="G74" s="97"/>
       <c r="H74" s="53"/>
       <c r="I74" s="54"/>
-      <c r="J74" s="53"/>
-      <c r="K74" s="53"/>
-    </row>
-    <row r="76" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="84" t="s">
+      <c r="J74" s="97">
+        <f>SUM(J68:J73)-SUM(K68:K73)</f>
+        <v>600</v>
+      </c>
+      <c r="K74" s="97"/>
+    </row>
+    <row r="76" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="94" t="s">
         <v>73</v>
       </c>
-      <c r="C76" s="84"/>
+      <c r="C76" s="94"/>
       <c r="D76" s="49"/>
-      <c r="F76" s="84" t="s">
+      <c r="F76" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="G76" s="84"/>
+      <c r="G76" s="94"/>
       <c r="H76" s="49"/>
-      <c r="J76" s="84" t="s">
+      <c r="J76" s="94" t="s">
         <v>75</v>
       </c>
-      <c r="K76" s="84"/>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K76" s="94"/>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B77" s="40">
         <v>250</v>
       </c>
-      <c r="C77" s="41"/>
-      <c r="D77" s="50"/>
+      <c r="C77" s="81">
+        <v>800</v>
+      </c>
+      <c r="D77" s="82" t="s">
+        <v>122</v>
+      </c>
       <c r="E77" s="48"/>
       <c r="F77" s="40"/>
       <c r="G77" s="41">
         <v>62650</v>
       </c>
       <c r="H77" s="50"/>
-      <c r="J77" s="40"/>
+      <c r="I77" s="85" t="s">
+        <v>127</v>
+      </c>
+      <c r="J77" s="87">
+        <v>1200</v>
+      </c>
       <c r="K77" s="41">
         <v>1500</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B78" s="42"/>
-      <c r="C78" s="43"/>
-      <c r="D78" s="50"/>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A78" s="83" t="s">
+        <v>121</v>
+      </c>
+      <c r="B78" s="84">
+        <v>800</v>
+      </c>
+      <c r="C78" s="88">
+        <v>50</v>
+      </c>
+      <c r="D78" s="82" t="s">
+        <v>130</v>
+      </c>
       <c r="F78" s="42"/>
       <c r="G78" s="43"/>
       <c r="H78" s="50"/>
       <c r="J78" s="42"/>
-      <c r="K78" s="43"/>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B79" s="42"/>
+      <c r="K78" s="88">
+        <f>2000+2000*0.06</f>
+        <v>2120</v>
+      </c>
+      <c r="L78" s="86" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A79" s="83" t="s">
+        <v>125</v>
+      </c>
+      <c r="B79" s="84">
+        <v>50</v>
+      </c>
       <c r="C79" s="43"/>
       <c r="D79" s="50"/>
       <c r="F79" s="42"/>
@@ -3958,7 +4238,7 @@
       <c r="J79" s="42"/>
       <c r="K79" s="43"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B80" s="42"/>
       <c r="C80" s="43"/>
       <c r="D80" s="50"/>
@@ -3968,7 +4248,7 @@
       <c r="J80" s="42"/>
       <c r="K80" s="43"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B81" s="42"/>
       <c r="C81" s="43"/>
       <c r="D81" s="50"/>
@@ -3978,7 +4258,7 @@
       <c r="J81" s="42"/>
       <c r="K81" s="43"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B82" s="42"/>
       <c r="C82" s="43"/>
       <c r="D82" s="50"/>
@@ -3988,48 +4268,65 @@
       <c r="J82" s="42"/>
       <c r="K82" s="43"/>
     </row>
-    <row r="83" spans="1:11" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="52"/>
-      <c r="B83" s="53"/>
-      <c r="C83" s="53"/>
+      <c r="B83" s="97">
+        <f>SUM(B77:B82)-SUM(C77:C82)</f>
+        <v>250</v>
+      </c>
+      <c r="C83" s="97"/>
       <c r="D83" s="53"/>
       <c r="E83" s="54"/>
-      <c r="F83" s="53"/>
-      <c r="G83" s="53"/>
+      <c r="G83" s="97">
+        <f>SUM(G77:G82)-SUM(F77:F82)</f>
+        <v>62650</v>
+      </c>
       <c r="H83" s="53"/>
       <c r="I83" s="54"/>
-      <c r="J83" s="53"/>
-      <c r="K83" s="53"/>
-    </row>
-    <row r="85" spans="1:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="84" t="s">
+      <c r="K83" s="97">
+        <f>SUM(K77:K82)-SUM(J77:J82)</f>
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="94" t="s">
         <v>76</v>
       </c>
-      <c r="C85" s="86"/>
+      <c r="C85" s="96"/>
       <c r="D85" s="51"/>
-      <c r="F85" s="85" t="s">
+      <c r="F85" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="G85" s="85"/>
+      <c r="G85" s="95"/>
       <c r="H85" s="49"/>
-      <c r="J85" s="85" t="s">
+      <c r="J85" s="95" t="s">
         <v>79</v>
       </c>
-      <c r="K85" s="85"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K85" s="95"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B86" s="40"/>
       <c r="C86" s="41">
         <v>50000</v>
       </c>
       <c r="D86" s="50"/>
-      <c r="F86" s="40"/>
+      <c r="E86" s="85" t="s">
+        <v>123</v>
+      </c>
+      <c r="F86" s="87">
+        <v>1000</v>
+      </c>
       <c r="G86" s="41"/>
       <c r="H86" s="50"/>
-      <c r="J86" s="40"/>
+      <c r="I86" s="85" t="s">
+        <v>124</v>
+      </c>
+      <c r="J86" s="87">
+        <v>150</v>
+      </c>
       <c r="K86" s="41"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B87" s="42"/>
       <c r="C87" s="43"/>
       <c r="D87" s="50"/>
@@ -4039,7 +4336,7 @@
       <c r="J87" s="42"/>
       <c r="K87" s="43"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B88" s="42"/>
       <c r="C88" s="43"/>
       <c r="D88" s="50"/>
@@ -4049,7 +4346,7 @@
       <c r="J88" s="42"/>
       <c r="K88" s="43"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B89" s="42"/>
       <c r="C89" s="43"/>
       <c r="D89" s="50"/>
@@ -4059,7 +4356,7 @@
       <c r="J89" s="42"/>
       <c r="K89" s="43"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B90" s="42"/>
       <c r="C90" s="43"/>
       <c r="D90" s="50"/>
@@ -4069,7 +4366,7 @@
       <c r="J90" s="42"/>
       <c r="K90" s="43"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B91" s="42"/>
       <c r="C91" s="43"/>
       <c r="D91" s="50"/>
@@ -4079,56 +4376,92 @@
       <c r="J91" s="42"/>
       <c r="K91" s="43"/>
     </row>
-    <row r="92" spans="1:11" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="52"/>
-      <c r="B92" s="53"/>
-      <c r="C92" s="53"/>
+      <c r="C92" s="97">
+        <f>SUM(C86:C91)-SUM(B86:B91)</f>
+        <v>50000</v>
+      </c>
       <c r="D92" s="53"/>
       <c r="E92" s="54"/>
-      <c r="F92" s="53"/>
-      <c r="G92" s="53"/>
+      <c r="F92" s="97">
+        <f>SUM(F86:F91)-SUM(G86:G91)</f>
+        <v>1000</v>
+      </c>
+      <c r="G92" s="97"/>
       <c r="H92" s="53"/>
       <c r="I92" s="54"/>
-      <c r="J92" s="53"/>
-      <c r="K92" s="53"/>
-    </row>
-    <row r="94" spans="1:11" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B94" s="84" t="s">
+      <c r="J92" s="97">
+        <f>SUM(J86:J91)-SUM(K86:K91)</f>
+        <v>150</v>
+      </c>
+      <c r="K92" s="97"/>
+    </row>
+    <row r="94" spans="1:12" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="94" t="s">
         <v>77</v>
       </c>
-      <c r="C94" s="84"/>
+      <c r="C94" s="94"/>
       <c r="D94" s="49"/>
-      <c r="F94" s="84" t="s">
+      <c r="F94" s="94" t="s">
         <v>78</v>
       </c>
-      <c r="G94" s="84"/>
+      <c r="G94" s="94"/>
       <c r="H94" s="49"/>
-      <c r="J94" s="85" t="s">
+      <c r="J94" s="95" t="s">
         <v>81</v>
       </c>
-      <c r="K94" s="85"/>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K94" s="95"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B95" s="40"/>
-      <c r="C95" s="41"/>
-      <c r="D95" s="50"/>
-      <c r="F95" s="40"/>
+      <c r="C95" s="81">
+        <v>50</v>
+      </c>
+      <c r="D95" s="82" t="s">
+        <v>125</v>
+      </c>
+      <c r="E95" s="85" t="s">
+        <v>125</v>
+      </c>
+      <c r="F95" s="87">
+        <v>40</v>
+      </c>
       <c r="G95" s="41"/>
       <c r="H95" s="50"/>
-      <c r="J95" s="40"/>
-      <c r="K95" s="41"/>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I95" s="85" t="s">
+        <v>129</v>
+      </c>
+      <c r="J95" s="87">
+        <v>120</v>
+      </c>
+      <c r="K95" s="81">
+        <v>300</v>
+      </c>
+      <c r="L95" s="86" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B96" s="42"/>
-      <c r="C96" s="43"/>
-      <c r="D96" s="50"/>
-      <c r="F96" s="42"/>
+      <c r="C96" s="88">
+        <v>5000</v>
+      </c>
+      <c r="D96" s="82" t="s">
+        <v>126</v>
+      </c>
+      <c r="E96" s="85" t="s">
+        <v>126</v>
+      </c>
+      <c r="F96" s="84">
+        <v>3000</v>
+      </c>
       <c r="G96" s="43"/>
       <c r="H96" s="50"/>
       <c r="J96" s="42"/>
       <c r="K96" s="43"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B97" s="42"/>
       <c r="C97" s="43"/>
       <c r="D97" s="50"/>
@@ -4138,7 +4471,7 @@
       <c r="J97" s="42"/>
       <c r="K97" s="43"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B98" s="42"/>
       <c r="C98" s="43"/>
       <c r="D98" s="50"/>
@@ -4148,7 +4481,7 @@
       <c r="J98" s="42"/>
       <c r="K98" s="43"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B99" s="42"/>
       <c r="C99" s="43"/>
       <c r="D99" s="50"/>
@@ -4158,7 +4491,7 @@
       <c r="J99" s="42"/>
       <c r="K99" s="43"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B100" s="42"/>
       <c r="C100" s="43"/>
       <c r="D100" s="50"/>
@@ -4168,45 +4501,64 @@
       <c r="J100" s="42"/>
       <c r="K100" s="43"/>
     </row>
-    <row r="101" spans="1:11" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="52"/>
       <c r="B101" s="53"/>
-      <c r="C101" s="53"/>
+      <c r="C101" s="53">
+        <f>SUM(C95:C100)-SUM(B95:B100)</f>
+        <v>5050</v>
+      </c>
       <c r="D101" s="53"/>
       <c r="E101" s="54"/>
-      <c r="F101" s="53"/>
+      <c r="F101" s="53">
+        <f>SUM(F95:F100)-SUM(G95:G100)</f>
+        <v>3040</v>
+      </c>
       <c r="G101" s="53"/>
       <c r="H101" s="53"/>
       <c r="I101" s="54"/>
       <c r="J101" s="53"/>
-      <c r="K101" s="53"/>
-    </row>
-    <row r="103" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B103" s="85" t="s">
+      <c r="K101" s="53">
+        <f>SUM(K95:K100)-SUM(J95:J100)</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="95" t="s">
+        <v>117</v>
+      </c>
+      <c r="C103" s="95"/>
+      <c r="F103" s="95" t="s">
+        <v>82</v>
+      </c>
+      <c r="G103" s="95"/>
+      <c r="J103" s="95" t="s">
         <v>118</v>
       </c>
-      <c r="C103" s="85"/>
-      <c r="F103" s="85" t="s">
-        <v>82</v>
-      </c>
-      <c r="G103" s="85"/>
-      <c r="J103" s="85" t="s">
-        <v>119</v>
-      </c>
-      <c r="K103" s="85"/>
-    </row>
-    <row r="104" spans="1:11" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K103" s="95"/>
+    </row>
+    <row r="104" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B104" s="40"/>
       <c r="C104" s="39">
         <v>2000</v>
       </c>
-      <c r="F104" s="40"/>
+      <c r="E104" s="85" t="s">
+        <v>130</v>
+      </c>
+      <c r="F104" s="87">
+        <v>50</v>
+      </c>
       <c r="G104" s="41"/>
       <c r="H104" s="50"/>
       <c r="J104" s="40"/>
-      <c r="K104" s="41"/>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K104" s="81">
+        <v>763</v>
+      </c>
+      <c r="L104" s="86" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B105" s="42"/>
       <c r="C105" s="41"/>
       <c r="D105" s="50"/>
@@ -4216,7 +4568,7 @@
       <c r="J105" s="42"/>
       <c r="K105" s="43"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B106" s="42"/>
       <c r="C106" s="43"/>
       <c r="D106" s="50"/>
@@ -4226,7 +4578,7 @@
       <c r="J106" s="42"/>
       <c r="K106" s="43"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B107" s="42"/>
       <c r="C107" s="43"/>
       <c r="D107" s="50"/>
@@ -4236,7 +4588,7 @@
       <c r="J107" s="42"/>
       <c r="K107" s="43"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B108" s="42"/>
       <c r="C108" s="43"/>
       <c r="D108" s="50"/>
@@ -4246,7 +4598,7 @@
       <c r="J108" s="42"/>
       <c r="K108" s="43"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B109" s="42"/>
       <c r="C109" s="43"/>
       <c r="D109" s="50"/>
@@ -4256,7 +4608,7 @@
       <c r="J109" s="42"/>
       <c r="K109" s="43"/>
     </row>
-    <row r="110" spans="1:11" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="52"/>
       <c r="B110" s="45"/>
       <c r="C110" s="45"/>
